--- a/data/Negociado_de_Policia/npprDS_victima.xlsx
+++ b/data/Negociado_de_Policia/npprDS_victima.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Documents\ViolenciaGeneroPR\data\Negociado_de_Policia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77FFC92-8A22-4B5A-A7DF-00BCB659E08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32824C1E-8E85-4E9A-9DCD-89208EC87868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="15" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,10 +1605,10 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1616,10 +1616,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>516</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1627,10 +1627,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1638,10 +1638,10 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1649,10 +1649,10 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1660,10 +1660,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1682,10 +1682,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1693,10 +1693,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1704,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1759,10 +1759,10 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
